--- a/report moi tuan/tuan 5/1159032-1359035-1359037-1359038.xlsx
+++ b/report moi tuan/tuan 5/1159032-1359035-1359037-1359038.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\son long\Documents\PM---Group-10\report moi tuan\tuan 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CJ\Documents\PM---Group-10\report moi tuan\tuan 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>MSSV</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Report tuần 5 Sign up tools.</t>
+  </si>
+  <si>
+    <t>Trần Đoàn Hải Phong</t>
   </si>
 </sst>
 </file>
@@ -510,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,6 +764,74 @@
       </c>
       <c r="E14" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1159032</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1159032</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1159033</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1159034</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/report moi tuan/tuan 5/1159032-1359035-1359037-1359038.xlsx
+++ b/report moi tuan/tuan 5/1159032-1359035-1359037-1359038.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +805,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1159033</v>
+        <v>1159032</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -822,7 +822,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1159034</v>
+        <v>1159032</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>

--- a/report moi tuan/tuan 5/1159032-1359035-1359037-1359038.xlsx
+++ b/report moi tuan/tuan 5/1159032-1359035-1359037-1359038.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CJ\Documents\PM---Group-10\report moi tuan\tuan 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\son long\Documents\PM---Group-10\report moi tuan\tuan 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>MSSV</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Trần Đoàn Hải Phong</t>
+  </si>
+  <si>
+    <t>Sắp xếp kế hoách trên trello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sắp xếp kế hoạch trên trelllo </t>
   </si>
 </sst>
 </file>
@@ -513,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,6 +840,23 @@
         <v>22</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1359037</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -842,10 +865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,6 +1250,23 @@
       </c>
       <c r="E22">
         <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42588</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>1359037</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
